--- a/th_dialect_dict/datasets/ราชบัณฑิตฯ/หมวด_ฎ(2).xlsx
+++ b/th_dialect_dict/datasets/ราชบัณฑิตฯ/หมวด_ฎ(2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanoon/Downloads/ข้อมูลพจนานุกรม ก-ฮ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d695ccdc58059bb2/Documents/Programming/th_dialect_dict/datasets/ราชบัณฑิตฯ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5BF036-2C57-4F48-9F99-46C3E6E47FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="6_{C5E6A26D-2435-4873-946E-A1AC9DFD7D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="2805" windowWidth="21525" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,13 +37,13 @@
     <t>ฎีกา</t>
   </si>
   <si>
-    <t>พยัญชนะตัวที่ ๑๔ เรียกว่า ฎอ ชฎา เป็นอักษรกลาง ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากดหรือแม่กด เช่น กฎ มงกุฎ.</t>
-  </si>
-  <si>
     <t>น. คำอธิบายขยายความ เช่น ฎีกาพาหุง; ชื่อคัมภีร์หนังสือที่แก้หรืออธิบายคัมภีร์อรรถกถา; หนังสือที่เขียนนิมนต์พระสงฆ์; ใบแจ้งการขอเบิกเงินจากคลัง; ใบบอกบุญเรี่ยไร; คำร้องทุกข์ที่ราษฎรทูลเกล้าฯ ถวายต่อพระมหากษัตริย์; ชื่อศาลยุติธรรมสูงสุดของประเทศไทย ซึ่งเรียกว่า ศาลฎีกา; การคัดค้านคำพิพากษาหรือคำสั่งศาลชั้นต้นหรือศาลอุทธรณ์ เพื่อเสนอให้ศาลฎีกาพิจารณาพิพากษาหรือวินิจฉัยชี้ขาด; ใบเรียกเก็บเงิน.; ก. ยื่นคำร้องขอหรือคำคัดค้านต่อศาลฎีกา เช่น คดีนี้จะฎีกาหรือไม่.</t>
   </si>
   <si>
     <t>related_word</t>
+  </si>
+  <si>
+    <t>? พยัญชนะตัวที่ ๑๔ เรียกว่า ฎอ ชฎา เป็นอักษรกลาง ใช้เป็นพยัญชนะต้น และเป็นตัวสะกดในมาตรากดหรือแม่กด เช่น กฎ มงกุฎ.</t>
   </si>
 </sst>
 </file>
@@ -423,18 +423,18 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="72.33203125" customWidth="1"/>
-    <col min="4" max="4" width="52.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="72.28515625" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,26 +445,26 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2"/>
     </row>
